--- a/public/files/cars/sample-cars.xlsx
+++ b/public/files/cars/sample-cars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\portrans\nozaki\public\files\cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216811B6-258A-4650-8CAC-493590817C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D1E132-E8A9-42F2-8C38-B223574359C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AAE6ED2-B5B4-4E8D-B6FF-B27CE4F69FE6}"/>
+    <workbookView xWindow="15045" yWindow="0" windowWidth="14685" windowHeight="11385" xr2:uid="{8AAE6ED2-B5B4-4E8D-B6FF-B27CE4F69FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Placa</t>
   </si>
@@ -48,16 +48,16 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>XXX234</t>
-  </si>
-  <si>
-    <t>XXX235</t>
-  </si>
-  <si>
-    <t>XXX236</t>
-  </si>
-  <si>
-    <t>CAMIONETA</t>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Tipo de Servicio</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>Combustible</t>
   </si>
 </sst>
 </file>
@@ -99,9 +99,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,22 +415,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82721DAE-F2ED-455C-8357-F5D4F86BD954}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,53 +442,20 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2019</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2020</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2021</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
